--- a/September/Others/Symphony Service Point.xlsx
+++ b/September/Others/Symphony Service Point.xlsx
@@ -670,7 +670,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="A1:G30"/>
+      <selection sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,7 +1046,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>